--- a/biology/Zoologie/Astérix_et_la_Surprise_de_César/Astérix_et_la_Surprise_de_César.xlsx
+++ b/biology/Zoologie/Astérix_et_la_Surprise_de_César/Astérix_et_la_Surprise_de_César.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ast%C3%A9rix_et_la_Surprise_de_C%C3%A9sar</t>
+          <t>Astérix_et_la_Surprise_de_César</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Astérix et la Surprise de César est un film d'animation français de Gaëtan et Paul Brizzi, sorti en 1985.
-C'est le premier film produit par le studio Astérix créé par la Gaumont[1]. Le scénario est un mélange des albums Astérix gladiateur (1964) et Astérix légionnaire (1967) de René Goscinny et Albert Uderzo.
+C'est le premier film produit par le studio Astérix créé par la Gaumont. Le scénario est un mélange des albums Astérix gladiateur (1964) et Astérix légionnaire (1967) de René Goscinny et Albert Uderzo.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ast%C3%A9rix_et_la_Surprise_de_C%C3%A9sar</t>
+          <t>Astérix_et_la_Surprise_de_César</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Obélix tombe sous le charme de la belle Falbala lorsque celle-ci revient au village. Mais l'arrivée de son fiancé Tragicomix met fin à son idylle  unilatérale. Plus tard, l'enlèvement du couple par les Romains conduit Astérix et Obélix à leur porter secours dans un périple qui les conduira de Condate (Rennes) et Massilia (Marseille) jusque dans le Colisée, à Rome, en passant par l'Afrique Saharienne.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ast%C3%A9rix_et_la_Surprise_de_C%C3%A9sar</t>
+          <t>Astérix_et_la_Surprise_de_César</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Astérix et la Surprise de César
 Réalisation : Gaëtan et Paul Brizzi
@@ -570,7 +586,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ast%C3%A9rix_et_la_Surprise_de_C%C3%A9sar</t>
+          <t>Astérix_et_la_Surprise_de_César</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -590,7 +606,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Voix originales françaises
+          <t>Voix originales françaises</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Roger Carel : Astérix, Idéfix et un romain qui capture Tragicomix
 Pierre Tornade : Obélix
 Pierre Mondy : Caius Obtus
@@ -618,7 +640,7 @@
 Guy Piérauld : Agecanonix
 Edmond Bernard, Peter Wollasch, Alain Coutey, Martin Lamotte et Roger Barbet : voix additionnelles
 version réalisée par S.T.A.R.T.
-Sources : Planète Jeunesse[2], Allodoublage[3], Doublanim’[4], RS Doublage[5], Allociné[6] et sur le site officiel Astérix.com[7]</t>
+Sources : Planète Jeunesse, Allodoublage, Doublanim’, RS Doublage, Allociné et sur le site officiel Astérix.com</t>
         </is>
       </c>
     </row>
@@ -628,7 +650,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ast%C3%A9rix_et_la_Surprise_de_C%C3%A9sar</t>
+          <t>Astérix_et_la_Surprise_de_César</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -646,7 +668,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1987 : Golden Screen</t>
         </is>
@@ -658,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ast%C3%A9rix_et_la_Surprise_de_C%C3%A9sar</t>
+          <t>Astérix_et_la_Surprise_de_César</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -676,7 +700,9 @@
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>On peut noter plusieurs anachronismes. Par exemple :
 le Colisée ne sera construit que sous le règne de l'empereur Vespasien, soit plus d'un siècle après la mort de Jules César ;
